--- a/Adjusting for non-full groups.xlsx
+++ b/Adjusting for non-full groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\irnhsft.local\monitor\Redirected\Paul.Bullard\Documents\GitHub\CaseloadModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD09D65-83F8-4877-BBB6-559A7B0303C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05667BDE-053E-4F18-B254-F330521744D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{92EBC8F4-FFEF-47DF-AF95-10D96C6C3FDC}"/>
+    <workbookView xWindow="20" yWindow="600" windowWidth="25580" windowHeight="13800" xr2:uid="{92EBC8F4-FFEF-47DF-AF95-10D96C6C3FDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,7 +472,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -507,7 +507,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>420</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -545,14 +545,14 @@
       </c>
       <c r="E8">
         <f>(E5/E6)*E2</f>
-        <v>900</v>
+        <v>651.42857142857144</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H8">
         <f>E8/E2</f>
-        <v>60</v>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -562,14 +562,14 @@
       </c>
       <c r="E9">
         <f>(E5/E6)*E3</f>
-        <v>1680</v>
+        <v>857.14285714285711</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H9">
         <f>E9/E3</f>
-        <v>60</v>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -583,18 +583,18 @@
       </c>
       <c r="E11">
         <f>E5*(ROUNDUP(E2/E6,0))</f>
-        <v>1260</v>
+        <v>720</v>
       </c>
       <c r="F11">
         <f>E11/60</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H11">
         <f>E11/E2</f>
-        <v>84</v>
+        <v>37.89473684210526</v>
       </c>
       <c r="J11">
         <f>3*420</f>
@@ -608,18 +608,18 @@
       </c>
       <c r="E12">
         <f>IF(MOD(E3,E6)&gt;=E6/2,ROUNDUP(E3/E6,0)*E5,(E5/E6)*E3)</f>
-        <v>1680</v>
+        <v>960</v>
       </c>
       <c r="F12">
         <f>E12/60</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H12">
         <f>E12/E3</f>
-        <v>60</v>
+        <v>38.4</v>
       </c>
     </row>
   </sheetData>
